--- a/exp_income.xlsx
+++ b/exp_income.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="48" windowWidth="20112" windowHeight="7992" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="col3" sheetId="2" r:id="rId2"/>
+    <sheet name="new1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -479,7 +479,7 @@
       <selection activeCell="H14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -926,10 +926,10 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1283,7 +1283,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
